--- a/biology/Botanique/Sinojackia_rehderiana/Sinojackia_rehderiana.xlsx
+++ b/biology/Botanique/Sinojackia_rehderiana/Sinojackia_rehderiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinojackia rehderiana est un arbuste de la famille des Styracacées, originaire et endémique de Chine.
 L'attribut spécifique est une dédicace à Alfred Rehder, botaniste américain.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste caduc, de 5 m de haut.
 Les feuilles sont simples, alternes, glabres à l'état adulte, sur un court pétiole (moins de 5 mm) sans stipule. Elles revêtent deux aspects, l'un sur les branches portant les fleurs, de forme ovale et de plus petite taille, de 2 à 5 cm de long sur 1,5 à 2 cm (les feuilles à la base des fleurs sont encore plus petites), l'autre sur le reste de la plante, de forme elliptique et de taille plus grande, de 3 à 9 cm de long sur 2 à 5 cm de large.
@@ -549,7 +563,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel se situe dans le nord du Guangdong, le sud du Hunan, le Jiangxi, entre 500 et 800 m d'altitude, en lisière forestière.
 </t>
@@ -580,7 +596,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante, à la floraison délicate et au feuillage clair et agréable, commence à peine à trouver une diffusion horticole en France.
 Cette espèce préfère un substrat plutôt acide et un emplacement modérément ensoleillé. Elle résiste bien au froid.
